--- a/Whatsapp_Sheet.xlsx
+++ b/Whatsapp_Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrebialowas/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandrebialowas/WhatsApp_Sender/Whatsapp_Sender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112E2E8B-C77C-CA40-8048-C3383D171A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A48B72-F2B4-ED4E-81F7-A287D6E45B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{C94E4ADF-949A-7B4A-988B-91F66EAE3D50}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4266" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4272" uniqueCount="35">
   <si>
     <t>SIM</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>Grupo 20</t>
+  </si>
+  <si>
+    <t>WELLINGTON</t>
+  </si>
+  <si>
+    <t>11982051157</t>
+  </si>
+  <si>
+    <t>Kaique</t>
+  </si>
+  <si>
+    <t>11940601796</t>
+  </si>
+  <si>
+    <t>Oi, isso é um teste!!!</t>
   </si>
 </sst>
 </file>
@@ -221,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -230,7 +245,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,7 +583,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -670,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -727,12 +741,16 @@
         <v>3</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,10 +811,17 @@
       <c r="V3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="W3" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,12 +882,14 @@
       <c r="V4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="W4" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>0</v>
@@ -923,10 +950,9 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>0</v>
@@ -987,10 +1013,9 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -1051,10 +1076,9 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>0</v>
@@ -1115,7 +1139,6 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -1179,7 +1202,6 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -1243,7 +1265,6 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -1307,10 +1328,9 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>0</v>
@@ -1371,10 +1391,9 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
@@ -1435,7 +1454,6 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -1499,7 +1517,6 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -1563,7 +1580,6 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -1626,11 +1642,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -1690,11 +1705,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>0</v>
@@ -1754,11 +1768,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>0</v>
@@ -1818,11 +1831,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
       <c r="C20" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
@@ -1882,8 +1894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -1946,11 +1957,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>0</v>
@@ -2010,8 +2020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -2074,8 +2083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -2138,11 +2146,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -2202,8 +2209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -2266,11 +2272,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
@@ -2330,8 +2335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -2394,11 +2398,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>3</v>
@@ -2458,8 +2461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -2522,11 +2524,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>0</v>
@@ -2586,8 +2587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -2650,8 +2650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -2714,8 +2713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -2778,11 +2776,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
@@ -2842,11 +2839,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>0</v>
@@ -2906,11 +2902,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
@@ -2970,8 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -3034,11 +3028,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
@@ -3098,8 +3091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -3162,11 +3154,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -3226,11 +3217,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -3290,11 +3280,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
@@ -3354,8 +3343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -3418,8 +3406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -3482,11 +3469,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
       <c r="C46" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
@@ -3546,8 +3532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -3610,8 +3595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -3674,8 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -3738,8 +3721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B50" s="3"/>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -3802,11 +3784,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B51" s="3"/>
       <c r="C51" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
@@ -3866,8 +3847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B52" s="3"/>
       <c r="C52" s="1" t="s">
         <v>3</v>
@@ -3930,8 +3910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B53" s="3"/>
       <c r="C53" s="1" t="s">
         <v>3</v>
@@ -3994,11 +3973,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B54" s="3"/>
       <c r="C54" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
@@ -4058,11 +4036,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B55" s="3"/>
       <c r="C55" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
@@ -4122,8 +4099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B56" s="3"/>
       <c r="C56" s="1" t="s">
         <v>3</v>
@@ -4186,8 +4162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B57" s="3"/>
       <c r="C57" s="1" t="s">
         <v>3</v>
@@ -4250,11 +4225,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B58" s="3"/>
       <c r="C58" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>0</v>
@@ -4314,8 +4288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B59" s="3"/>
       <c r="C59" s="1" t="s">
         <v>3</v>
@@ -4378,11 +4351,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B60" s="3"/>
       <c r="C60" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>3</v>
@@ -4442,8 +4414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B61" s="3"/>
       <c r="C61" s="1" t="s">
         <v>3</v>
@@ -4506,8 +4477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B62" s="3"/>
       <c r="C62" s="1" t="s">
         <v>3</v>
@@ -4570,8 +4540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B63" s="3"/>
       <c r="C63" s="1" t="s">
         <v>3</v>
@@ -4634,8 +4603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B64" s="3"/>
       <c r="C64" s="1" t="s">
         <v>3</v>
@@ -4698,8 +4666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B65" s="3"/>
       <c r="C65" s="1" t="s">
         <v>3</v>
@@ -4762,8 +4729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B66" s="3"/>
       <c r="C66" s="1" t="s">
         <v>3</v>
@@ -4826,11 +4792,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B67" s="3"/>
       <c r="C67" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>3</v>
@@ -4890,8 +4855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B68" s="3"/>
       <c r="C68" s="1" t="s">
         <v>3</v>
@@ -4954,8 +4918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B69" s="3"/>
       <c r="C69" s="1" t="s">
         <v>3</v>
@@ -5018,8 +4981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B70" s="3"/>
       <c r="C70" s="1" t="s">
         <v>3</v>
@@ -5082,11 +5044,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B71" s="3"/>
       <c r="C71" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>0</v>
@@ -5146,8 +5107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B72" s="3"/>
       <c r="C72" s="1" t="s">
         <v>3</v>
@@ -5210,8 +5170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" s="3"/>
       <c r="C73" s="1" t="s">
         <v>3</v>
@@ -5274,11 +5233,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" s="3"/>
       <c r="C74" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>0</v>
@@ -5338,8 +5296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" s="3"/>
       <c r="C75" s="1" t="s">
         <v>3</v>
@@ -5402,11 +5359,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B76" s="3"/>
       <c r="C76" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>3</v>
@@ -5466,8 +5422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B77" s="3"/>
       <c r="C77" s="1" t="s">
         <v>3</v>
@@ -5530,11 +5485,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
       <c r="C78" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>0</v>
@@ -5594,11 +5548,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="3"/>
       <c r="C79" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>3</v>
@@ -5658,11 +5611,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B80" s="3"/>
       <c r="C80" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>0</v>
@@ -5722,11 +5674,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B81" s="3"/>
       <c r="C81" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>3</v>
@@ -5786,8 +5737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B82" s="3"/>
       <c r="C82" s="1" t="s">
         <v>3</v>
@@ -5850,8 +5800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B83" s="3"/>
       <c r="C83" s="1" t="s">
         <v>3</v>
@@ -5914,8 +5863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B84" s="3"/>
       <c r="C84" s="1" t="s">
         <v>3</v>
@@ -5978,11 +5926,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B85" s="3"/>
       <c r="C85" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>3</v>
@@ -6042,8 +5989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B86" s="3"/>
       <c r="C86" s="1" t="s">
         <v>3</v>
@@ -6106,11 +6052,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B87" s="3"/>
       <c r="C87" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>0</v>
@@ -6170,8 +6115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B88" s="3"/>
       <c r="C88" s="1" t="s">
         <v>3</v>
@@ -6234,8 +6178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B89" s="3"/>
       <c r="C89" s="1" t="s">
         <v>3</v>
@@ -6298,8 +6241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B90" s="3"/>
       <c r="C90" s="1" t="s">
         <v>3</v>
@@ -6362,8 +6304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B91" s="3"/>
       <c r="C91" s="1" t="s">
         <v>3</v>
@@ -6426,11 +6367,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B92" s="3"/>
       <c r="C92" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>3</v>
@@ -6490,8 +6430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A93" s="6"/>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B93" s="3"/>
       <c r="C93" s="1" t="s">
         <v>3</v>
@@ -6554,11 +6493,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A94" s="6"/>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B94" s="3"/>
       <c r="C94" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>3</v>
@@ -6618,8 +6556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B95" s="3"/>
       <c r="C95" s="1" t="s">
         <v>3</v>
@@ -6682,11 +6619,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B96" s="3"/>
       <c r="C96" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>0</v>
@@ -6746,11 +6682,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B97" s="3"/>
       <c r="C97" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>0</v>
@@ -6810,8 +6745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B98" s="3"/>
       <c r="C98" s="1" t="s">
         <v>3</v>
@@ -6874,8 +6808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A99" s="6"/>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B99" s="3"/>
       <c r="C99" s="1" t="s">
         <v>3</v>
@@ -6938,11 +6871,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A100" s="6"/>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B100" s="3"/>
       <c r="C100" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>3</v>
@@ -7002,11 +6934,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B101" s="3"/>
       <c r="C101" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>3</v>
@@ -7066,8 +6997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B102" s="3"/>
       <c r="C102" s="1" t="s">
         <v>3</v>
@@ -7130,11 +7060,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
+    <row r="103" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B103" s="3"/>
       <c r="C103" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>3</v>
@@ -7194,8 +7123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
+    <row r="104" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B104" s="3"/>
       <c r="C104" s="1" t="s">
         <v>3</v>
@@ -7258,8 +7186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
+    <row r="105" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B105" s="3"/>
       <c r="C105" s="1" t="s">
         <v>3</v>
@@ -7322,8 +7249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A106" s="6"/>
+    <row r="106" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B106" s="3"/>
       <c r="C106" s="1" t="s">
         <v>3</v>
@@ -7386,11 +7312,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A107" s="6"/>
+    <row r="107" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B107" s="3"/>
       <c r="C107" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>3</v>
@@ -7450,8 +7375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A108" s="6"/>
+    <row r="108" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B108" s="3"/>
       <c r="C108" s="1" t="s">
         <v>3</v>
@@ -7514,8 +7438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
+    <row r="109" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B109" s="3"/>
       <c r="C109" s="1" t="s">
         <v>3</v>
@@ -7578,11 +7501,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A110" s="6"/>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B110" s="3"/>
       <c r="C110" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>3</v>
@@ -7642,11 +7564,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A111" s="6"/>
+    <row r="111" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B111" s="3"/>
       <c r="C111" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>3</v>
@@ -7706,11 +7627,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A112" s="6"/>
+    <row r="112" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B112" s="3"/>
       <c r="C112" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>0</v>
@@ -7770,8 +7690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A113" s="6"/>
+    <row r="113" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B113" s="3"/>
       <c r="C113" s="1" t="s">
         <v>3</v>
@@ -7834,8 +7753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A114" s="6"/>
+    <row r="114" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B114" s="3"/>
       <c r="C114" s="1" t="s">
         <v>3</v>
@@ -7898,8 +7816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A115" s="6"/>
+    <row r="115" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B115" s="3"/>
       <c r="C115" s="1" t="s">
         <v>3</v>
@@ -7962,8 +7879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A116" s="6"/>
+    <row r="116" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B116" s="3"/>
       <c r="C116" s="1" t="s">
         <v>3</v>
@@ -8026,11 +7942,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
+    <row r="117" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B117" s="3"/>
       <c r="C117" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>3</v>
@@ -8090,8 +8005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A118" s="6"/>
+    <row r="118" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B118" s="3"/>
       <c r="C118" s="1" t="s">
         <v>3</v>
@@ -8154,11 +8068,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A119" s="6"/>
+    <row r="119" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B119" s="3"/>
       <c r="C119" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>3</v>
@@ -8218,8 +8131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A120" s="6"/>
+    <row r="120" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B120" s="3"/>
       <c r="C120" s="1" t="s">
         <v>3</v>
@@ -8282,11 +8194,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A121" s="6"/>
+    <row r="121" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B121" s="3"/>
       <c r="C121" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>3</v>
@@ -8346,11 +8257,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A122" s="6"/>
+    <row r="122" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B122" s="3"/>
       <c r="C122" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>3</v>
@@ -8410,8 +8320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A123" s="6"/>
+    <row r="123" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B123" s="3"/>
       <c r="C123" s="1" t="s">
         <v>3</v>
@@ -8474,8 +8383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A124" s="6"/>
+    <row r="124" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B124" s="3"/>
       <c r="C124" s="1" t="s">
         <v>3</v>
@@ -8538,8 +8446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A125" s="6"/>
+    <row r="125" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B125" s="3"/>
       <c r="C125" s="1" t="s">
         <v>3</v>
@@ -8602,8 +8509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A126" s="6"/>
+    <row r="126" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B126" s="3"/>
       <c r="C126" s="1" t="s">
         <v>3</v>
@@ -8666,11 +8572,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A127" s="6"/>
+    <row r="127" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B127" s="3"/>
       <c r="C127" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>0</v>
@@ -8730,8 +8635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A128" s="6"/>
+    <row r="128" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B128" s="3"/>
       <c r="C128" s="1" t="s">
         <v>3</v>
@@ -8794,8 +8698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A129" s="6"/>
+    <row r="129" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B129" s="3"/>
       <c r="C129" s="1" t="s">
         <v>3</v>
@@ -8858,8 +8761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A130" s="6"/>
+    <row r="130" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B130" s="3"/>
       <c r="C130" s="1" t="s">
         <v>3</v>
@@ -8922,8 +8824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A131" s="6"/>
+    <row r="131" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B131" s="3"/>
       <c r="C131" s="1" t="s">
         <v>3</v>
@@ -8986,8 +8887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A132" s="6"/>
+    <row r="132" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B132" s="3"/>
       <c r="C132" s="1" t="s">
         <v>3</v>
@@ -9050,8 +8950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A133" s="6"/>
+    <row r="133" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B133" s="3"/>
       <c r="C133" s="1" t="s">
         <v>3</v>
@@ -9114,8 +9013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A134" s="6"/>
+    <row r="134" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B134" s="3"/>
       <c r="C134" s="1" t="s">
         <v>3</v>
@@ -9178,11 +9076,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A135" s="6"/>
+    <row r="135" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B135" s="3"/>
       <c r="C135" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>3</v>
@@ -9242,8 +9139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A136" s="6"/>
+    <row r="136" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B136" s="3"/>
       <c r="C136" s="1" t="s">
         <v>3</v>
@@ -9306,8 +9202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A137" s="6"/>
+    <row r="137" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B137" s="3"/>
       <c r="C137" s="1" t="s">
         <v>3</v>
@@ -9370,8 +9265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A138" s="6"/>
+    <row r="138" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B138" s="3"/>
       <c r="C138" s="1" t="s">
         <v>3</v>
@@ -9434,8 +9328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A139" s="6"/>
+    <row r="139" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B139" s="3"/>
       <c r="C139" s="1" t="s">
         <v>3</v>
@@ -9498,8 +9391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A140" s="6"/>
+    <row r="140" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B140" s="3"/>
       <c r="C140" s="1" t="s">
         <v>3</v>
@@ -9562,8 +9454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A141" s="6"/>
+    <row r="141" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B141" s="3"/>
       <c r="C141" s="1" t="s">
         <v>3</v>
@@ -9626,11 +9517,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A142" s="6"/>
+    <row r="142" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B142" s="3"/>
       <c r="C142" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>3</v>
@@ -9690,11 +9580,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A143" s="6"/>
+    <row r="143" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B143" s="3"/>
       <c r="C143" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>3</v>
@@ -9754,11 +9643,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A144" s="6"/>
+    <row r="144" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B144" s="3"/>
       <c r="C144" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>3</v>
@@ -9818,11 +9706,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A145" s="6"/>
+    <row r="145" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B145" s="3"/>
       <c r="C145" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>3</v>
@@ -9882,11 +9769,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A146" s="6"/>
+    <row r="146" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B146" s="3"/>
       <c r="C146" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>0</v>
@@ -9946,8 +9832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A147" s="6"/>
+    <row r="147" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B147" s="3"/>
       <c r="C147" s="1" t="s">
         <v>3</v>
@@ -10010,8 +9895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A148" s="6"/>
+    <row r="148" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B148" s="3"/>
       <c r="C148" s="1" t="s">
         <v>3</v>
@@ -10074,8 +9958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A149" s="6"/>
+    <row r="149" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B149" s="3"/>
       <c r="C149" s="1" t="s">
         <v>3</v>
@@ -10138,11 +10021,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A150" s="6"/>
+    <row r="150" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B150" s="3"/>
       <c r="C150" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>3</v>
@@ -10202,8 +10084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A151" s="6"/>
+    <row r="151" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B151" s="3"/>
       <c r="C151" s="1" t="s">
         <v>3</v>
@@ -10266,8 +10147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A152" s="6"/>
+    <row r="152" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B152" s="3"/>
       <c r="C152" s="1" t="s">
         <v>3</v>
@@ -10330,8 +10210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A153" s="6"/>
+    <row r="153" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B153" s="3"/>
       <c r="C153" s="1" t="s">
         <v>3</v>
@@ -10394,8 +10273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A154" s="6"/>
+    <row r="154" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B154" s="3"/>
       <c r="C154" s="1" t="s">
         <v>3</v>
@@ -10458,8 +10336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A155" s="6"/>
+    <row r="155" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B155" s="3"/>
       <c r="C155" s="1" t="s">
         <v>3</v>
@@ -10522,11 +10399,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A156" s="6"/>
+    <row r="156" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B156" s="3"/>
       <c r="C156" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>3</v>
@@ -10586,8 +10462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A157" s="6"/>
+    <row r="157" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B157" s="3"/>
       <c r="C157" s="1" t="s">
         <v>3</v>
@@ -10650,11 +10525,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A158" s="6"/>
+    <row r="158" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B158" s="3"/>
       <c r="C158" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>3</v>
@@ -10714,8 +10588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A159" s="6"/>
+    <row r="159" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B159" s="3"/>
       <c r="C159" s="1" t="s">
         <v>3</v>
@@ -10778,8 +10651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A160" s="6"/>
+    <row r="160" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B160" s="3"/>
       <c r="C160" s="1" t="s">
         <v>3</v>
@@ -10842,8 +10714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A161" s="6"/>
+    <row r="161" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B161" s="3"/>
       <c r="C161" s="1" t="s">
         <v>3</v>
@@ -10906,8 +10777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A162" s="6"/>
+    <row r="162" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B162" s="3"/>
       <c r="C162" s="1" t="s">
         <v>3</v>
@@ -10970,8 +10840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A163" s="6"/>
+    <row r="163" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B163" s="3"/>
       <c r="C163" s="1" t="s">
         <v>3</v>
@@ -11034,8 +10903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A164" s="6"/>
+    <row r="164" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B164" s="3"/>
       <c r="C164" s="1" t="s">
         <v>3</v>
@@ -11098,8 +10966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A165" s="6"/>
+    <row r="165" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B165" s="3"/>
       <c r="C165" s="1" t="s">
         <v>3</v>
@@ -11162,8 +11029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A166" s="6"/>
+    <row r="166" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B166" s="3"/>
       <c r="C166" s="1" t="s">
         <v>3</v>
@@ -11226,8 +11092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A167" s="6"/>
+    <row r="167" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B167" s="3"/>
       <c r="C167" s="1" t="s">
         <v>3</v>
@@ -11290,8 +11155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A168" s="6"/>
+    <row r="168" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B168" s="3"/>
       <c r="C168" s="1" t="s">
         <v>3</v>
@@ -11354,11 +11218,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A169" s="6"/>
+    <row r="169" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B169" s="3"/>
       <c r="C169" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>3</v>
@@ -11418,8 +11281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A170" s="6"/>
+    <row r="170" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B170" s="3"/>
       <c r="C170" s="1" t="s">
         <v>3</v>
@@ -11482,11 +11344,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A171" s="6"/>
+    <row r="171" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B171" s="3"/>
       <c r="C171" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>0</v>
@@ -11546,11 +11407,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A172" s="6"/>
+    <row r="172" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B172" s="3"/>
       <c r="C172" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>3</v>
@@ -11610,11 +11470,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A173" s="6"/>
+    <row r="173" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B173" s="3"/>
       <c r="C173" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>3</v>
@@ -11674,8 +11533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A174" s="6"/>
+    <row r="174" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B174" s="3"/>
       <c r="C174" s="1" t="s">
         <v>3</v>
@@ -11738,11 +11596,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A175" s="6"/>
+    <row r="175" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B175" s="3"/>
       <c r="C175" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>3</v>
@@ -11802,8 +11659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A176" s="6"/>
+    <row r="176" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B176" s="3"/>
       <c r="C176" s="1" t="s">
         <v>3</v>
@@ -11866,8 +11722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A177" s="6"/>
+    <row r="177" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B177" s="3"/>
       <c r="C177" s="1" t="s">
         <v>3</v>
@@ -11930,8 +11785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A178" s="6"/>
+    <row r="178" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B178" s="3"/>
       <c r="C178" s="1" t="s">
         <v>3</v>
@@ -11994,11 +11848,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A179" s="6"/>
+    <row r="179" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B179" s="3"/>
       <c r="C179" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>0</v>
@@ -12058,11 +11911,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A180" s="6"/>
+    <row r="180" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B180" s="3"/>
       <c r="C180" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>3</v>
@@ -12122,11 +11974,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A181" s="6"/>
+    <row r="181" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B181" s="3"/>
       <c r="C181" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>3</v>
@@ -12186,8 +12037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A182" s="6"/>
+    <row r="182" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B182" s="3"/>
       <c r="C182" s="1" t="s">
         <v>3</v>
@@ -12250,11 +12100,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A183" s="6"/>
+    <row r="183" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B183" s="3"/>
       <c r="C183" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>3</v>
@@ -12314,8 +12163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A184" s="6"/>
+    <row r="184" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B184" s="3"/>
       <c r="C184" s="1" t="s">
         <v>3</v>
@@ -12378,8 +12226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A185" s="6"/>
+    <row r="185" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B185" s="3"/>
       <c r="C185" s="1" t="s">
         <v>3</v>
@@ -12442,8 +12289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A186" s="6"/>
+    <row r="186" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B186" s="3"/>
       <c r="C186" s="1" t="s">
         <v>3</v>
@@ -12506,8 +12352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A187" s="6"/>
+    <row r="187" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B187" s="3"/>
       <c r="C187" s="1" t="s">
         <v>3</v>
@@ -12570,11 +12415,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A188" s="6"/>
+    <row r="188" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B188" s="3"/>
       <c r="C188" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>3</v>
@@ -12634,8 +12478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A189" s="6"/>
+    <row r="189" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B189" s="3"/>
       <c r="C189" s="1" t="s">
         <v>3</v>
@@ -12698,8 +12541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A190" s="6"/>
+    <row r="190" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B190" s="3"/>
       <c r="C190" s="1" t="s">
         <v>3</v>
@@ -12762,8 +12604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A191" s="6"/>
+    <row r="191" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B191" s="3"/>
       <c r="C191" s="1" t="s">
         <v>3</v>
@@ -12826,8 +12667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A192" s="6"/>
+    <row r="192" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B192" s="3"/>
       <c r="C192" s="1" t="s">
         <v>3</v>
@@ -12890,8 +12730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A193" s="6"/>
+    <row r="193" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B193" s="3"/>
       <c r="C193" s="1" t="s">
         <v>3</v>
@@ -12954,8 +12793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A194" s="6"/>
+    <row r="194" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B194" s="3"/>
       <c r="C194" s="1" t="s">
         <v>3</v>
@@ -13018,11 +12856,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A195" s="6"/>
+    <row r="195" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B195" s="3"/>
       <c r="C195" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>0</v>
@@ -13082,11 +12919,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A196" s="6"/>
+    <row r="196" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B196" s="3"/>
       <c r="C196" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>3</v>
@@ -13146,8 +12982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A197" s="6"/>
+    <row r="197" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B197" s="3"/>
       <c r="C197" s="1" t="s">
         <v>3</v>
@@ -13210,8 +13045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A198" s="6"/>
+    <row r="198" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B198" s="3"/>
       <c r="C198" s="1" t="s">
         <v>3</v>
@@ -13274,11 +13108,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A199" s="6"/>
+    <row r="199" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B199" s="3"/>
       <c r="C199" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>0</v>
@@ -13338,8 +13171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A200" s="6"/>
+    <row r="200" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B200" s="3"/>
       <c r="C200" s="1" t="s">
         <v>3</v>
@@ -13402,11 +13234,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A201" s="6"/>
+    <row r="201" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B201" s="3"/>
       <c r="C201" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>0</v>
@@ -13466,11 +13297,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A202" s="6"/>
+    <row r="202" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B202" s="3"/>
       <c r="C202" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>0</v>
@@ -13530,8 +13360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A203" s="6"/>
+    <row r="203" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B203" s="3"/>
       <c r="C203" s="1" t="s">
         <v>3</v>
@@ -13594,11 +13423,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A204" s="6"/>
+    <row r="204" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B204" s="3"/>
       <c r="C204" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>3</v>
@@ -13658,8 +13486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A205" s="6"/>
+    <row r="205" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B205" s="3"/>
       <c r="C205" s="1" t="s">
         <v>3</v>
@@ -13722,11 +13549,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A206" s="6"/>
+    <row r="206" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B206" s="3"/>
       <c r="C206" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>3</v>
@@ -13786,8 +13612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A207" s="6"/>
+    <row r="207" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B207" s="3"/>
       <c r="C207" s="1" t="s">
         <v>3</v>
@@ -13850,8 +13675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A208" s="6"/>
+    <row r="208" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B208" s="3"/>
       <c r="C208" s="1" t="s">
         <v>3</v>
@@ -13915,7 +13739,6 @@
       </c>
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A209" s="6"/>
       <c r="B209" s="3"/>
       <c r="C209" s="1" t="s">
         <v>3</v>
@@ -13979,7 +13802,6 @@
       </c>
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A210" s="6"/>
       <c r="B210" s="3"/>
       <c r="C210" s="1" t="s">
         <v>3</v>
@@ -14043,10 +13865,9 @@
       </c>
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A211" s="6"/>
       <c r="B211" s="3"/>
       <c r="C211" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>3</v>
@@ -14107,7 +13928,6 @@
       </c>
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A212" s="6"/>
       <c r="B212" s="3"/>
       <c r="C212" s="1" t="s">
         <v>3</v>
@@ -14171,7 +13991,6 @@
       </c>
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A213" s="6"/>
       <c r="C213" s="1" t="s">
         <v>3</v>
       </c>
